--- a/excel/data_excel/States.xlsx
+++ b/excel/data_excel/States.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C66AAA3-90B9-402F-B1DE-78D510F0DD8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +13,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="States" localSheetId="0">Sheet1!$A$1:$BT$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$BV$3</definedName>
+    <definedName name="States" localSheetId="0">Sheet1!$C$1:$BV$188</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="States" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="States" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data_excel\States.txt">
       <textFields count="72">
         <textField/>
@@ -102,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="431">
   <si>
     <t>state</t>
   </si>
@@ -1368,12 +1370,48 @@
   </si>
   <si>
     <t>uberminion</t>
+  </si>
+  <si>
+    <t>数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_States</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1422,12 +1460,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="States" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="States" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1473,7 +1514,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1506,9 +1547,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1541,6 +1599,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1716,4259 +1791,5826 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BV188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="61" max="63" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="15" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="15" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J3" t="s">
+        <v>430</v>
+      </c>
+      <c r="K3" t="s">
+        <v>430</v>
+      </c>
+      <c r="L3" t="s">
+        <v>430</v>
+      </c>
+      <c r="M3" t="s">
+        <v>430</v>
+      </c>
+      <c r="N3" t="s">
+        <v>430</v>
+      </c>
+      <c r="O3" t="s">
+        <v>430</v>
+      </c>
+      <c r="P3" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>430</v>
+      </c>
+      <c r="R3" t="s">
+        <v>430</v>
+      </c>
+      <c r="S3" t="s">
+        <v>430</v>
+      </c>
+      <c r="T3" t="s">
+        <v>430</v>
+      </c>
+      <c r="U3" t="s">
+        <v>430</v>
+      </c>
+      <c r="V3" t="s">
+        <v>430</v>
+      </c>
+      <c r="W3" t="s">
+        <v>430</v>
+      </c>
+      <c r="X3" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>73</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="BG3">
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
         <v>100</v>
       </c>
-      <c r="BH3">
+      <c r="BJ5">
         <v>108</v>
       </c>
-      <c r="BI3">
+      <c r="BK5">
         <v>150</v>
       </c>
-      <c r="BJ3">
+      <c r="BL5">
         <v>215</v>
       </c>
-      <c r="BK3">
+      <c r="BM5">
         <v>255</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BN5" t="s">
         <v>74</v>
       </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="BV5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>75</v>
       </c>
-      <c r="B4">
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AX4" t="s">
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>76</v>
       </c>
-      <c r="BG4">
+      <c r="BI6">
         <v>95</v>
       </c>
-      <c r="BH4">
+      <c r="BJ6">
         <v>104</v>
       </c>
-      <c r="BI4">
+      <c r="BK6">
         <v>128</v>
       </c>
-      <c r="BJ4">
+      <c r="BL6">
         <v>255</v>
       </c>
-      <c r="BK4">
+      <c r="BM6">
         <v>128</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BN6" t="s">
         <v>77</v>
       </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="BV6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="B5">
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="s">
         <v>79</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AZ7" t="s">
         <v>80</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BB7" t="s">
         <v>81</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BN7" t="s">
         <v>82</v>
       </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="BV7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="B6">
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="s">
         <v>84</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AZ8" t="s">
         <v>85</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BB8" t="s">
         <v>86</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BN8" t="s">
         <v>87</v>
       </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="BV8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>88</v>
       </c>
-      <c r="B7">
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="AS7" t="s">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="s">
         <v>89</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AZ9" t="s">
         <v>90</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BB9" t="s">
         <v>91</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BN9" t="s">
         <v>92</v>
       </c>
-      <c r="BT7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="BV9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>93</v>
       </c>
-      <c r="B8">
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="BT8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="BV10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>94</v>
       </c>
-      <c r="B9">
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="BT9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="BV11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="B10">
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="AS10" t="s">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="AU12" t="s">
         <v>96</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AV12" t="s">
         <v>97</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AZ12" t="s">
         <v>98</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BB12" t="s">
         <v>91</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BN12" t="s">
         <v>99</v>
       </c>
-      <c r="BT10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="BV12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="B11">
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13">
         <v>9</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="AS11" t="s">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="AU13" t="s">
         <v>101</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AZ13" t="s">
         <v>102</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BB13" t="s">
         <v>103</v>
       </c>
-      <c r="BL11" t="s">
+      <c r="BN13" t="s">
         <v>104</v>
       </c>
-      <c r="BT11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="BV13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>105</v>
       </c>
-      <c r="B12">
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="AS12" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="AU14" t="s">
         <v>105</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BB14" t="s">
         <v>106</v>
       </c>
-      <c r="BT12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="BV14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>107</v>
       </c>
-      <c r="B13">
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15">
         <v>11</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="AZ13" t="s">
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="BB15" t="s">
         <v>108</v>
       </c>
-      <c r="BG13">
+      <c r="BI15">
         <v>100</v>
       </c>
-      <c r="BH13">
+      <c r="BJ15">
         <v>108</v>
       </c>
-      <c r="BI13">
+      <c r="BK15">
         <v>150</v>
       </c>
-      <c r="BJ13">
+      <c r="BL15">
         <v>215</v>
       </c>
-      <c r="BK13">
+      <c r="BM15">
         <v>255</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BN15" t="s">
         <v>74</v>
       </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="BV15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>109</v>
       </c>
-      <c r="B14">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16">
         <v>12</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="BT14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>110</v>
       </c>
-      <c r="B15">
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17">
         <v>13</v>
       </c>
-      <c r="BA15">
+      <c r="BC17">
         <v>3</v>
       </c>
-      <c r="BT15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="BV17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>111</v>
       </c>
-      <c r="B16">
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="AN16">
-        <v>1</v>
-      </c>
-      <c r="AO16">
-        <v>1</v>
-      </c>
-      <c r="AS16" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AU18" t="s">
         <v>112</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AV18" t="s">
         <v>113</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AW18" t="s">
         <v>114</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AX18" t="s">
         <v>115</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AZ18" t="s">
         <v>116</v>
       </c>
-      <c r="BA16">
+      <c r="BC18">
         <v>6</v>
       </c>
-      <c r="BB16">
+      <c r="BD18">
         <v>3</v>
       </c>
-      <c r="BT16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="BV18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>117</v>
       </c>
-      <c r="B17">
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19">
         <v>15</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="s">
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="BB19" t="s">
         <v>106</v>
       </c>
-      <c r="BT17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="BV19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>118</v>
       </c>
-      <c r="B18">
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20">
         <v>16</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="AX18" t="s">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="s">
         <v>118</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BB20" t="s">
         <v>119</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BG20" t="s">
         <v>120</v>
       </c>
-      <c r="BF18" t="s">
+      <c r="BH20" t="s">
         <v>121</v>
       </c>
-      <c r="BT18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="BV20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>122</v>
       </c>
-      <c r="B19">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21">
         <v>17</v>
       </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="AS19" t="s">
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AU21" t="s">
         <v>122</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BB21" t="s">
         <v>123</v>
       </c>
-      <c r="BT19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="BV21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>124</v>
       </c>
-      <c r="B20">
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22">
         <v>18</v>
       </c>
-      <c r="BT20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="BV22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>125</v>
       </c>
-      <c r="B21">
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23">
         <v>19</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="AS21" t="s">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AU23" t="s">
         <v>126</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AZ23" t="s">
         <v>102</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BB23" t="s">
         <v>127</v>
       </c>
-      <c r="BL21" t="s">
+      <c r="BN23" t="s">
         <v>128</v>
       </c>
-      <c r="BT21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="BV23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>129</v>
       </c>
-      <c r="B22">
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24">
         <v>20</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="AS22" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="AU24" t="s">
         <v>130</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BB24" t="s">
         <v>106</v>
       </c>
-      <c r="BP22" t="s">
+      <c r="BR24" t="s">
         <v>131</v>
       </c>
-      <c r="BQ22">
-        <v>1</v>
-      </c>
-      <c r="BT22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="BS24">
+        <v>1</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>132</v>
       </c>
-      <c r="B23">
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25">
         <v>21</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AU25" t="s">
         <v>133</v>
       </c>
-      <c r="BT23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="BV25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>134</v>
       </c>
-      <c r="B24">
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26">
         <v>22</v>
       </c>
-      <c r="BT24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="BV26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>135</v>
       </c>
-      <c r="B25">
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27">
         <v>23</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="AS25" t="s">
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="s">
         <v>136</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AZ27" t="s">
         <v>102</v>
       </c>
-      <c r="BL25" t="s">
+      <c r="BN27" t="s">
         <v>137</v>
       </c>
-      <c r="BT25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="BV27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>138</v>
       </c>
-      <c r="B26">
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28">
         <v>24</v>
       </c>
-      <c r="BT26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="BV28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>139</v>
       </c>
-      <c r="B27">
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29">
         <v>25</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AU29" t="s">
         <v>140</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BB29" t="s">
         <v>141</v>
       </c>
-      <c r="BT27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="BV29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>142</v>
       </c>
-      <c r="B28">
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30">
         <v>26</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="AS28" t="s">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="AU30" t="s">
         <v>142</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AZ30" t="s">
         <v>143</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BB30" t="s">
         <v>106</v>
       </c>
-      <c r="BT28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="BV30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>144</v>
       </c>
-      <c r="B29">
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31">
         <v>27</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="AS29" t="s">
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="AU31" t="s">
         <v>144</v>
       </c>
-      <c r="BL29" t="s">
+      <c r="BN31" t="s">
         <v>145</v>
       </c>
-      <c r="BT29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="BV31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
         <v>146</v>
       </c>
-      <c r="B30">
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32">
         <v>28</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="AS30" t="s">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="AU32" t="s">
         <v>147</v>
       </c>
-      <c r="AT30" t="s">
+      <c r="AV32" t="s">
         <v>148</v>
       </c>
-      <c r="BL30" t="s">
+      <c r="BN32" t="s">
         <v>149</v>
       </c>
-      <c r="BT30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="BV32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
         <v>150</v>
       </c>
-      <c r="B31">
+      <c r="C33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33">
         <v>29</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>1</v>
-      </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AS31" t="s">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="s">
         <v>147</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="AV33" t="s">
         <v>148</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="BB33" t="s">
         <v>151</v>
       </c>
-      <c r="BT31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="BV33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
         <v>152</v>
       </c>
-      <c r="B32">
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34">
         <v>30</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AU34" t="s">
         <v>152</v>
       </c>
-      <c r="BT32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="BV34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
         <v>153</v>
       </c>
-      <c r="B33">
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35">
         <v>31</v>
       </c>
-      <c r="AZ33" t="s">
+      <c r="BB35" t="s">
         <v>154</v>
       </c>
-      <c r="BE33" t="s">
+      <c r="BG35" t="s">
         <v>155</v>
       </c>
-      <c r="BF33" t="s">
+      <c r="BH35" t="s">
         <v>156</v>
       </c>
-      <c r="BT33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="BV35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
         <v>157</v>
       </c>
-      <c r="B34">
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36">
         <v>32</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="AS34" t="s">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="s">
         <v>157</v>
       </c>
-      <c r="AX34" t="s">
+      <c r="AZ36" t="s">
         <v>158</v>
       </c>
-      <c r="AZ34" t="s">
+      <c r="BB36" t="s">
         <v>159</v>
       </c>
-      <c r="BT34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="BV36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
         <v>160</v>
       </c>
-      <c r="B35">
+      <c r="C37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37">
         <v>33</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="AS35" t="s">
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="s">
         <v>161</v>
       </c>
-      <c r="AT35" t="s">
+      <c r="AV37" t="s">
         <v>162</v>
       </c>
-      <c r="AZ35" t="s">
+      <c r="BB37" t="s">
         <v>127</v>
       </c>
-      <c r="BL35" t="s">
+      <c r="BN37" t="s">
         <v>163</v>
       </c>
-      <c r="BT35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="BV37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
         <v>164</v>
       </c>
-      <c r="B36">
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38">
         <v>34</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="AS36" t="s">
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="AU38" t="s">
         <v>165</v>
       </c>
-      <c r="AT36" t="s">
+      <c r="AV38" t="s">
         <v>166</v>
       </c>
-      <c r="BL36" t="s">
+      <c r="BN38" t="s">
         <v>167</v>
       </c>
-      <c r="BT36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="BV38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
         <v>168</v>
       </c>
-      <c r="B37">
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39">
         <v>35</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="AS37" t="s">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="AU39" t="s">
         <v>169</v>
       </c>
-      <c r="AT37" t="s">
+      <c r="AV39" t="s">
         <v>170</v>
       </c>
-      <c r="BL37" t="s">
+      <c r="BN39" t="s">
         <v>171</v>
       </c>
-      <c r="BT37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="BV39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
         <v>172</v>
       </c>
-      <c r="B38">
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40">
         <v>36</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="AS38" t="s">
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="s">
         <v>173</v>
       </c>
-      <c r="AT38" t="s">
+      <c r="AV40" t="s">
         <v>174</v>
       </c>
-      <c r="BL38" t="s">
+      <c r="BN40" t="s">
         <v>175</v>
       </c>
-      <c r="BT38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="BV40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
         <v>176</v>
       </c>
-      <c r="B39">
+      <c r="C41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41">
         <v>37</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="AS39" t="s">
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="s">
         <v>177</v>
       </c>
-      <c r="AT39" t="s">
+      <c r="AV41" t="s">
         <v>178</v>
       </c>
-      <c r="AZ39" t="s">
+      <c r="BB41" t="s">
         <v>106</v>
       </c>
-      <c r="BL39" t="s">
+      <c r="BN41" t="s">
         <v>179</v>
       </c>
-      <c r="BT39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="BV41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
         <v>180</v>
       </c>
-      <c r="B40">
+      <c r="C42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42">
         <v>38</v>
       </c>
-      <c r="AT40" t="s">
+      <c r="AV42" t="s">
         <v>181</v>
       </c>
-      <c r="AX40" t="s">
+      <c r="AZ42" t="s">
         <v>182</v>
       </c>
-      <c r="BT40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="BV42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
         <v>183</v>
       </c>
-      <c r="B41">
+      <c r="C43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43">
         <v>39</v>
       </c>
-      <c r="BT41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+      <c r="BV43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
         <v>184</v>
       </c>
-      <c r="B42">
+      <c r="C44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44">
         <v>40</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="AS42" t="s">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="AU44" t="s">
         <v>185</v>
       </c>
-      <c r="AT42" t="s">
+      <c r="AV44" t="s">
         <v>186</v>
       </c>
-      <c r="AZ42" t="s">
+      <c r="BB44" t="s">
         <v>187</v>
       </c>
-      <c r="BL42" t="s">
+      <c r="BN44" t="s">
         <v>188</v>
       </c>
-      <c r="BT42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="BV44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
         <v>189</v>
       </c>
-      <c r="B43">
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45">
         <v>41</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="AS43" t="s">
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="AU45" t="s">
         <v>190</v>
       </c>
-      <c r="AT43" t="s">
+      <c r="AV45" t="s">
         <v>191</v>
       </c>
-      <c r="AZ43" t="s">
+      <c r="BB45" t="s">
         <v>192</v>
       </c>
-      <c r="BL43" t="s">
+      <c r="BN45" t="s">
         <v>193</v>
       </c>
-      <c r="BT43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="BV45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
         <v>194</v>
       </c>
-      <c r="B44">
+      <c r="C46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46">
         <v>42</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="AS44" t="s">
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="AU46" t="s">
         <v>195</v>
       </c>
-      <c r="AT44" t="s">
+      <c r="AV46" t="s">
         <v>196</v>
       </c>
-      <c r="AZ44" t="s">
+      <c r="BB46" t="s">
         <v>127</v>
       </c>
-      <c r="BL44" t="s">
+      <c r="BN46" t="s">
         <v>197</v>
       </c>
-      <c r="BT44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="BV46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
         <v>198</v>
       </c>
-      <c r="B45">
+      <c r="C47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47">
         <v>43</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="AS45" t="s">
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="AU47" t="s">
         <v>199</v>
       </c>
-      <c r="BL45" t="s">
+      <c r="BN47" t="s">
         <v>200</v>
       </c>
-      <c r="BT45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="BV47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
         <v>201</v>
       </c>
-      <c r="B46">
+      <c r="C48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48">
         <v>44</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="AS46" t="s">
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="AU48" t="s">
         <v>202</v>
       </c>
-      <c r="AX46" t="s">
+      <c r="AZ48" t="s">
         <v>203</v>
       </c>
-      <c r="AZ46" t="s">
+      <c r="BB48" t="s">
         <v>108</v>
       </c>
-      <c r="BG46">
+      <c r="BI48">
         <v>100</v>
       </c>
-      <c r="BH46">
+      <c r="BJ48">
         <v>108</v>
       </c>
-      <c r="BI46">
+      <c r="BK48">
         <v>150</v>
       </c>
-      <c r="BJ46">
+      <c r="BL48">
         <v>215</v>
       </c>
-      <c r="BK46">
+      <c r="BM48">
         <v>255</v>
       </c>
-      <c r="BL46" t="s">
+      <c r="BN48" t="s">
         <v>74</v>
       </c>
-      <c r="BT46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+      <c r="BV48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
         <v>204</v>
       </c>
-      <c r="B47">
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49">
         <v>45</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="AS47" t="s">
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="AU49" t="s">
         <v>205</v>
       </c>
-      <c r="AT47" t="s">
+      <c r="AV49" t="s">
         <v>206</v>
       </c>
-      <c r="BL47" t="s">
+      <c r="BN49" t="s">
         <v>207</v>
       </c>
-      <c r="BT47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+      <c r="BV49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
         <v>208</v>
       </c>
-      <c r="B48">
+      <c r="C50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50">
         <v>46</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="AS48" t="s">
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="AU50" t="s">
         <v>209</v>
       </c>
-      <c r="AT48" t="s">
+      <c r="AV50" t="s">
         <v>210</v>
       </c>
-      <c r="AZ48" t="s">
+      <c r="BB50" t="s">
         <v>211</v>
       </c>
-      <c r="BL48" t="s">
+      <c r="BN50" t="s">
         <v>212</v>
       </c>
-      <c r="BT48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+      <c r="BV50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
         <v>213</v>
       </c>
-      <c r="B49">
+      <c r="C51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51">
         <v>47</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="AS49" t="s">
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="AU51" t="s">
         <v>214</v>
       </c>
-      <c r="AT49" t="s">
+      <c r="AV51" t="s">
         <v>215</v>
       </c>
-      <c r="AZ49" t="s">
+      <c r="BB51" t="s">
         <v>216</v>
       </c>
-      <c r="BL49" t="s">
+      <c r="BN51" t="s">
         <v>217</v>
       </c>
-      <c r="BR49">
+      <c r="BT51">
         <v>86</v>
       </c>
-      <c r="BT49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="BV51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
         <v>218</v>
       </c>
-      <c r="B50">
+      <c r="C52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52">
         <v>48</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="AS50" t="s">
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="AU52" t="s">
         <v>219</v>
       </c>
-      <c r="AT50" t="s">
+      <c r="AV52" t="s">
         <v>220</v>
       </c>
-      <c r="BL50" t="s">
+      <c r="BN52" t="s">
         <v>221</v>
       </c>
-      <c r="BT50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="BV52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
         <v>222</v>
       </c>
-      <c r="B51">
+      <c r="C53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53">
         <v>49</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="AS51" t="s">
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="AU53" t="s">
         <v>223</v>
       </c>
-      <c r="AT51" t="s">
+      <c r="AV53" t="s">
         <v>224</v>
       </c>
-      <c r="AZ51" t="s">
+      <c r="BB53" t="s">
         <v>141</v>
       </c>
-      <c r="BL51" t="s">
+      <c r="BN53" t="s">
         <v>225</v>
       </c>
-      <c r="BT51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+      <c r="BV53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
         <v>226</v>
       </c>
-      <c r="B52">
+      <c r="C54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54">
         <v>50</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="AS52" t="s">
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="AU54" t="s">
         <v>227</v>
       </c>
-      <c r="AT52" t="s">
+      <c r="AV54" t="s">
         <v>228</v>
       </c>
-      <c r="BL52" t="s">
+      <c r="BN54" t="s">
         <v>229</v>
       </c>
-      <c r="BT52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+      <c r="BV54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
         <v>230</v>
       </c>
-      <c r="B53">
+      <c r="C55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55">
         <v>51</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="AS53" t="s">
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="AU55" t="s">
         <v>230</v>
       </c>
-      <c r="AX53" t="s">
+      <c r="AZ55" t="s">
         <v>231</v>
       </c>
-      <c r="BT53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+      <c r="BV55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
         <v>232</v>
       </c>
-      <c r="B54">
+      <c r="C56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56">
         <v>52</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="AK54">
-        <v>1</v>
-      </c>
-      <c r="BT54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="BV56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
         <v>233</v>
       </c>
-      <c r="B55">
+      <c r="C57" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57">
         <v>53</v>
       </c>
-      <c r="AD55">
-        <v>1</v>
-      </c>
-      <c r="AS55" t="s">
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AU57" t="s">
         <v>234</v>
       </c>
-      <c r="BL55" t="s">
+      <c r="BN57" t="s">
         <v>235</v>
       </c>
-      <c r="BT55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+      <c r="BV57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
         <v>236</v>
       </c>
-      <c r="B56">
+      <c r="C58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58">
         <v>54</v>
       </c>
-      <c r="BB56">
+      <c r="BD58">
         <v>7</v>
       </c>
-      <c r="BT56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="BV58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
         <v>237</v>
       </c>
-      <c r="B57">
+      <c r="C59" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59">
         <v>55</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="AS57" t="s">
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="AU59" t="s">
         <v>238</v>
       </c>
-      <c r="AX57" t="s">
+      <c r="AZ59" t="s">
         <v>102</v>
       </c>
-      <c r="BL57" t="s">
+      <c r="BN59" t="s">
         <v>239</v>
       </c>
-      <c r="BT57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="BV59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
         <v>240</v>
       </c>
-      <c r="B58">
+      <c r="C60" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60">
         <v>56</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="AS58" t="s">
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="AU60" t="s">
         <v>241</v>
       </c>
-      <c r="AX58" t="s">
+      <c r="AZ60" t="s">
         <v>102</v>
       </c>
-      <c r="BL58" t="s">
+      <c r="BN60" t="s">
         <v>242</v>
       </c>
-      <c r="BT58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="BV60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
         <v>243</v>
       </c>
-      <c r="B59">
+      <c r="C61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61">
         <v>57</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="AD59">
-        <v>1</v>
-      </c>
-      <c r="AS59" t="s">
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AU61" t="s">
         <v>244</v>
       </c>
-      <c r="AX59" t="s">
+      <c r="AZ61" t="s">
         <v>102</v>
       </c>
-      <c r="BL59" t="s">
+      <c r="BN61" t="s">
         <v>245</v>
       </c>
-      <c r="BT59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+      <c r="BV61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
         <v>246</v>
       </c>
-      <c r="B60">
+      <c r="C62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62">
         <v>58</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="AS60" t="s">
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="AU62" t="s">
         <v>247</v>
       </c>
-      <c r="AX60" t="s">
+      <c r="AZ62" t="s">
         <v>102</v>
       </c>
-      <c r="BL60" t="s">
+      <c r="BN62" t="s">
         <v>248</v>
       </c>
-      <c r="BT60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="BV62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
         <v>249</v>
       </c>
-      <c r="B61">
+      <c r="C63" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63">
         <v>59</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="AD61">
-        <v>1</v>
-      </c>
-      <c r="AS61" t="s">
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AU63" t="s">
         <v>250</v>
       </c>
-      <c r="AX61" t="s">
+      <c r="AZ63" t="s">
         <v>102</v>
       </c>
-      <c r="BL61" t="s">
+      <c r="BN63" t="s">
         <v>251</v>
       </c>
-      <c r="BT61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="BV63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
         <v>252</v>
       </c>
-      <c r="B62">
+      <c r="C64" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64">
         <v>60</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="X62">
-        <v>1</v>
-      </c>
-      <c r="AS62" t="s">
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AU64" t="s">
         <v>253</v>
       </c>
-      <c r="AX62" t="s">
+      <c r="AZ64" t="s">
         <v>102</v>
       </c>
-      <c r="AZ62" t="s">
+      <c r="BB64" t="s">
         <v>254</v>
       </c>
-      <c r="BL62" t="s">
+      <c r="BN64" t="s">
         <v>255</v>
       </c>
-      <c r="BT62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="BV64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
         <v>256</v>
       </c>
-      <c r="B63">
+      <c r="C65" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65">
         <v>61</v>
       </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="Z63">
-        <v>1</v>
-      </c>
-      <c r="AA63">
-        <v>1</v>
-      </c>
-      <c r="AB63">
-        <v>1</v>
-      </c>
-      <c r="AC63">
-        <v>1</v>
-      </c>
-      <c r="AS63" t="s">
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AD65">
+        <v>1</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
+      </c>
+      <c r="AU65" t="s">
         <v>257</v>
       </c>
-      <c r="AX63" t="s">
+      <c r="AZ65" t="s">
         <v>102</v>
       </c>
-      <c r="AZ63" t="s">
+      <c r="BB65" t="s">
         <v>91</v>
       </c>
-      <c r="BT63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="BV65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
         <v>258</v>
       </c>
-      <c r="B64">
+      <c r="C66" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66">
         <v>62</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="AK64">
-        <v>1</v>
-      </c>
-      <c r="BR64">
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="BT66">
         <v>85</v>
       </c>
-      <c r="BT64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+      <c r="BV66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
         <v>259</v>
       </c>
-      <c r="B65">
+      <c r="C67" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67">
         <v>63</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="AF65">
-        <v>1</v>
-      </c>
-      <c r="AG65">
-        <v>1</v>
-      </c>
-      <c r="AH65">
-        <v>1</v>
-      </c>
-      <c r="AJ65">
-        <v>1</v>
-      </c>
-      <c r="AP65">
-        <v>1</v>
-      </c>
-      <c r="BN65">
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>1</v>
+      </c>
+      <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1</v>
+      </c>
+      <c r="BP67">
         <v>2</v>
       </c>
-      <c r="BO65">
-        <v>0</v>
-      </c>
-      <c r="BT65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+      <c r="BQ67">
+        <v>0</v>
+      </c>
+      <c r="BV67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
         <v>260</v>
       </c>
-      <c r="B66">
+      <c r="C68" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68">
         <v>64</v>
       </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="BT66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="BV68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
         <v>261</v>
       </c>
-      <c r="B67">
+      <c r="C69" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69">
         <v>65</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="BT67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="BV69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
         <v>262</v>
       </c>
-      <c r="B68">
+      <c r="C70" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70">
         <v>66</v>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="BT68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="BV70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
         <v>263</v>
       </c>
-      <c r="B69">
+      <c r="C71" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71">
         <v>67</v>
       </c>
-      <c r="BT69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+      <c r="BV71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
         <v>264</v>
       </c>
-      <c r="B70">
+      <c r="C72" t="s">
+        <v>264</v>
+      </c>
+      <c r="D72">
         <v>68</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="BT70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="BV72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
         <v>265</v>
       </c>
-      <c r="B71">
+      <c r="C73" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73">
         <v>69</v>
       </c>
-      <c r="BT71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
+      <c r="BV73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
         <v>266</v>
       </c>
-      <c r="B72">
+      <c r="C74" t="s">
+        <v>266</v>
+      </c>
+      <c r="D74">
         <v>70</v>
       </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="BT72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="BV74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
         <v>267</v>
       </c>
-      <c r="B73">
+      <c r="C75" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75">
         <v>71</v>
       </c>
-      <c r="BT73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+      <c r="BV75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
         <v>268</v>
       </c>
-      <c r="B74">
+      <c r="C76" t="s">
+        <v>268</v>
+      </c>
+      <c r="D76">
         <v>72</v>
       </c>
-      <c r="BT74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+      <c r="BV76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
         <v>269</v>
       </c>
-      <c r="B75">
+      <c r="C77" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77">
         <v>73</v>
       </c>
-      <c r="BT75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+      <c r="BV77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
         <v>270</v>
       </c>
-      <c r="B76">
+      <c r="C78" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78">
         <v>74</v>
       </c>
-      <c r="BT76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+      <c r="BV78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
         <v>271</v>
       </c>
-      <c r="B77">
+      <c r="C79" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79">
         <v>75</v>
       </c>
-      <c r="BT77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+      <c r="BV79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
         <v>272</v>
       </c>
-      <c r="B78">
+      <c r="C80" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80">
         <v>76</v>
       </c>
-      <c r="BT78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
+      <c r="BV80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
         <v>273</v>
       </c>
-      <c r="B79">
+      <c r="C81" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81">
         <v>77</v>
       </c>
-      <c r="BT79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
+      <c r="BV81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
         <v>274</v>
       </c>
-      <c r="B80">
+      <c r="C82" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82">
         <v>78</v>
       </c>
-      <c r="BT80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
+      <c r="BV82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
         <v>275</v>
       </c>
-      <c r="B81">
+      <c r="C83" t="s">
+        <v>275</v>
+      </c>
+      <c r="D83">
         <v>79</v>
       </c>
-      <c r="BT81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
+      <c r="BV83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
         <v>276</v>
       </c>
-      <c r="B82">
+      <c r="C84" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84">
         <v>80</v>
       </c>
-      <c r="BT82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
+      <c r="BV84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
         <v>277</v>
       </c>
-      <c r="B83">
+      <c r="C85" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85">
         <v>81</v>
       </c>
-      <c r="BT83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+      <c r="BV85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
         <v>278</v>
       </c>
-      <c r="B84">
+      <c r="C86" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86">
         <v>82</v>
       </c>
-      <c r="AZ84" t="s">
+      <c r="BB86" t="s">
         <v>108</v>
       </c>
-      <c r="BT84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
+      <c r="BV86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
         <v>279</v>
       </c>
-      <c r="B85">
+      <c r="C87" t="s">
+        <v>279</v>
+      </c>
+      <c r="D87">
         <v>83</v>
       </c>
-      <c r="BT85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
+      <c r="BV87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
         <v>280</v>
       </c>
-      <c r="B86">
+      <c r="C88" t="s">
+        <v>280</v>
+      </c>
+      <c r="D88">
         <v>84</v>
       </c>
-      <c r="AS86" t="s">
+      <c r="AU88" t="s">
         <v>280</v>
       </c>
-      <c r="BT86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
+      <c r="BV88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
         <v>281</v>
       </c>
-      <c r="B87">
+      <c r="C89" t="s">
+        <v>281</v>
+      </c>
+      <c r="D89">
         <v>85</v>
       </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="BT87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="BV89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
         <v>282</v>
       </c>
-      <c r="B88">
+      <c r="C90" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90">
         <v>86</v>
       </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="BT88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="BV90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
         <v>283</v>
       </c>
-      <c r="B89">
+      <c r="C91" t="s">
+        <v>283</v>
+      </c>
+      <c r="D91">
         <v>87</v>
       </c>
-      <c r="AS89" t="s">
+      <c r="AU91" t="s">
         <v>122</v>
       </c>
-      <c r="AZ89" t="s">
+      <c r="BB91" t="s">
         <v>284</v>
       </c>
-      <c r="BT89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
+      <c r="BV91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
         <v>285</v>
       </c>
-      <c r="B90">
+      <c r="C92" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92">
         <v>88</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>1</v>
-      </c>
-      <c r="AS90" t="s">
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="AU92" t="s">
         <v>285</v>
       </c>
-      <c r="AZ90" t="s">
+      <c r="BB92" t="s">
         <v>106</v>
       </c>
-      <c r="BR90">
+      <c r="BT92">
         <v>87</v>
       </c>
-      <c r="BT90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
+      <c r="BV92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
         <v>286</v>
       </c>
-      <c r="B91">
+      <c r="C93" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93">
         <v>89</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>1</v>
-      </c>
-      <c r="AS91" t="s">
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="AU93" t="s">
         <v>286</v>
       </c>
-      <c r="AZ91" t="s">
+      <c r="BB93" t="s">
         <v>106</v>
       </c>
-      <c r="BL91" t="s">
+      <c r="BN93" t="s">
         <v>145</v>
       </c>
-      <c r="BT91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
+      <c r="BV93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
         <v>13</v>
       </c>
-      <c r="B92">
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94">
         <v>90</v>
       </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="BG92">
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="BI94">
         <v>100</v>
       </c>
-      <c r="BH92">
+      <c r="BJ94">
         <v>108</v>
       </c>
-      <c r="BI92">
+      <c r="BK94">
         <v>150</v>
       </c>
-      <c r="BJ92">
+      <c r="BL94">
         <v>215</v>
       </c>
-      <c r="BK92">
+      <c r="BM94">
         <v>255</v>
       </c>
-      <c r="BT92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
+      <c r="BV94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
         <v>287</v>
       </c>
-      <c r="B93">
+      <c r="C95" t="s">
+        <v>287</v>
+      </c>
+      <c r="D95">
         <v>91</v>
       </c>
-      <c r="BG93">
+      <c r="BI95">
         <v>70</v>
       </c>
-      <c r="BH93">
+      <c r="BJ95">
         <v>100</v>
       </c>
-      <c r="BI93">
+      <c r="BK95">
         <v>255</v>
       </c>
-      <c r="BJ93">
+      <c r="BL95">
         <v>255</v>
       </c>
-      <c r="BK93">
+      <c r="BM95">
         <v>255</v>
       </c>
-      <c r="BT93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
+      <c r="BV95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
         <v>288</v>
       </c>
-      <c r="B94">
+      <c r="C96" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96">
         <v>92</v>
       </c>
-      <c r="BT94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
+      <c r="BV96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
         <v>289</v>
       </c>
-      <c r="B95">
+      <c r="C97" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97">
         <v>93</v>
       </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="AS95" t="s">
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="AU97" t="s">
         <v>289</v>
       </c>
-      <c r="AX95" t="s">
+      <c r="AZ97" t="s">
         <v>290</v>
       </c>
-      <c r="BN95">
+      <c r="BP97">
         <v>2</v>
       </c>
-      <c r="BO95">
-        <v>0</v>
-      </c>
-      <c r="BT95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
+      <c r="BQ97">
+        <v>0</v>
+      </c>
+      <c r="BV97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
         <v>291</v>
       </c>
-      <c r="B96">
+      <c r="C98" t="s">
+        <v>291</v>
+      </c>
+      <c r="D98">
         <v>94</v>
       </c>
-      <c r="AT96" t="s">
+      <c r="AV98" t="s">
         <v>291</v>
       </c>
-      <c r="AZ96" t="s">
+      <c r="BB98" t="s">
         <v>292</v>
       </c>
-      <c r="BT96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
+      <c r="BV98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
         <v>293</v>
       </c>
-      <c r="B97">
+      <c r="C99" t="s">
+        <v>293</v>
+      </c>
+      <c r="D99">
         <v>95</v>
       </c>
-      <c r="Q97">
-        <v>1</v>
-      </c>
-      <c r="AS97" t="s">
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="AU99" t="s">
         <v>294</v>
       </c>
-      <c r="AT97" t="s">
+      <c r="AV99" t="s">
         <v>295</v>
       </c>
-      <c r="BT97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
+      <c r="BV99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
         <v>296</v>
       </c>
-      <c r="B98">
+      <c r="C100" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100">
         <v>96</v>
       </c>
-      <c r="AF98">
-        <v>1</v>
-      </c>
-      <c r="AG98">
-        <v>1</v>
-      </c>
-      <c r="AJ98">
-        <v>1</v>
-      </c>
-      <c r="BA98">
+      <c r="AH100">
+        <v>1</v>
+      </c>
+      <c r="AI100">
+        <v>1</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="BC100">
         <v>15</v>
       </c>
-      <c r="BG98">
+      <c r="BI100">
         <v>85</v>
       </c>
-      <c r="BH98">
+      <c r="BJ100">
         <v>73</v>
       </c>
-      <c r="BI98">
+      <c r="BK100">
         <v>255</v>
       </c>
-      <c r="BJ98">
+      <c r="BL100">
         <v>255</v>
       </c>
-      <c r="BK98">
+      <c r="BM100">
         <v>255</v>
       </c>
-      <c r="BT98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
+      <c r="BV100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
         <v>297</v>
       </c>
-      <c r="B99">
+      <c r="C101" t="s">
+        <v>297</v>
+      </c>
+      <c r="D101">
         <v>97</v>
       </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="BT99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="BV101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
         <v>298</v>
       </c>
-      <c r="B100">
+      <c r="C102" t="s">
+        <v>298</v>
+      </c>
+      <c r="D102">
         <v>98</v>
       </c>
-      <c r="AF100">
-        <v>1</v>
-      </c>
-      <c r="AG100">
-        <v>1</v>
-      </c>
-      <c r="BA100">
+      <c r="AH102">
+        <v>1</v>
+      </c>
+      <c r="AI102">
+        <v>1</v>
+      </c>
+      <c r="BC102">
         <v>4</v>
       </c>
-      <c r="BB100">
+      <c r="BD102">
         <v>2</v>
       </c>
-      <c r="BT100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
+      <c r="BV102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
         <v>299</v>
       </c>
-      <c r="B101">
+      <c r="C103" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103">
         <v>99</v>
       </c>
-      <c r="AF101">
-        <v>1</v>
-      </c>
-      <c r="AG101">
-        <v>1</v>
-      </c>
-      <c r="AH101">
-        <v>1</v>
-      </c>
-      <c r="AJ101">
-        <v>1</v>
-      </c>
-      <c r="BA101">
+      <c r="AH103">
+        <v>1</v>
+      </c>
+      <c r="AI103">
+        <v>1</v>
+      </c>
+      <c r="AJ103">
+        <v>1</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="BC103">
         <v>10</v>
       </c>
-      <c r="BD101" t="s">
+      <c r="BF103" t="s">
         <v>300</v>
       </c>
-      <c r="BL101" t="s">
+      <c r="BN103" t="s">
         <v>301</v>
       </c>
-      <c r="BT101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
+      <c r="BV103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
         <v>302</v>
       </c>
-      <c r="B102">
+      <c r="C104" t="s">
+        <v>302</v>
+      </c>
+      <c r="D104">
         <v>100</v>
       </c>
-      <c r="BT102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
+      <c r="BV104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
         <v>303</v>
       </c>
-      <c r="B103">
+      <c r="C105" t="s">
+        <v>303</v>
+      </c>
+      <c r="D105">
         <v>101</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="AZ103" t="s">
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="BB105" t="s">
         <v>106</v>
       </c>
-      <c r="BD103" t="s">
+      <c r="BF105" t="s">
         <v>304</v>
       </c>
-      <c r="BT103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+      <c r="BV105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
         <v>305</v>
       </c>
-      <c r="B104">
+      <c r="C106" t="s">
+        <v>305</v>
+      </c>
+      <c r="D106">
         <v>102</v>
       </c>
-      <c r="BT104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
+      <c r="BV106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
         <v>306</v>
       </c>
-      <c r="B105">
+      <c r="C107" t="s">
+        <v>306</v>
+      </c>
+      <c r="D107">
         <v>103</v>
       </c>
-      <c r="AT105" t="s">
+      <c r="AV107" t="s">
         <v>306</v>
       </c>
-      <c r="AZ105" t="s">
+      <c r="BB107" t="s">
         <v>292</v>
       </c>
-      <c r="BT105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
+      <c r="BV107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
         <v>307</v>
       </c>
-      <c r="B106">
+      <c r="C108" t="s">
+        <v>307</v>
+      </c>
+      <c r="D108">
         <v>104</v>
       </c>
-      <c r="AF106">
-        <v>1</v>
-      </c>
-      <c r="AG106">
-        <v>1</v>
-      </c>
-      <c r="AH106">
-        <v>1</v>
-      </c>
-      <c r="AJ106">
-        <v>1</v>
-      </c>
-      <c r="BT106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
+      <c r="AH108">
+        <v>1</v>
+      </c>
+      <c r="AI108">
+        <v>1</v>
+      </c>
+      <c r="AJ108">
+        <v>1</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="BV108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
         <v>308</v>
       </c>
-      <c r="B107">
+      <c r="C109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D109">
         <v>105</v>
       </c>
-      <c r="AE107">
-        <v>1</v>
-      </c>
-      <c r="AF107">
-        <v>1</v>
-      </c>
-      <c r="AG107">
-        <v>1</v>
-      </c>
-      <c r="BT107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
+      <c r="AG109">
+        <v>1</v>
+      </c>
+      <c r="AH109">
+        <v>1</v>
+      </c>
+      <c r="AI109">
+        <v>1</v>
+      </c>
+      <c r="BV109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
         <v>309</v>
       </c>
-      <c r="B108">
+      <c r="C110" t="s">
+        <v>309</v>
+      </c>
+      <c r="D110">
         <v>106</v>
       </c>
-      <c r="BT108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
+      <c r="BV110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111" t="s">
         <v>34</v>
       </c>
-      <c r="B109">
+      <c r="C111" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111">
         <v>107</v>
       </c>
-      <c r="AF109">
-        <v>1</v>
-      </c>
-      <c r="AG109">
-        <v>1</v>
-      </c>
-      <c r="AH109">
-        <v>1</v>
-      </c>
-      <c r="AI109">
-        <v>1</v>
-      </c>
-      <c r="AJ109">
-        <v>1</v>
-      </c>
-      <c r="BT109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
+      <c r="AH111">
+        <v>1</v>
+      </c>
+      <c r="AI111">
+        <v>1</v>
+      </c>
+      <c r="AJ111">
+        <v>1</v>
+      </c>
+      <c r="AK111">
+        <v>1</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="BV111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
         <v>310</v>
       </c>
-      <c r="B110">
+      <c r="C112" t="s">
+        <v>310</v>
+      </c>
+      <c r="D112">
         <v>108</v>
       </c>
-      <c r="AE110">
-        <v>1</v>
-      </c>
-      <c r="BT110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
+      <c r="AG112">
+        <v>1</v>
+      </c>
+      <c r="BV112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113" t="s">
         <v>311</v>
       </c>
-      <c r="B111">
+      <c r="C113" t="s">
+        <v>311</v>
+      </c>
+      <c r="D113">
         <v>109</v>
       </c>
-      <c r="BT111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
+      <c r="BV113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114" t="s">
         <v>312</v>
       </c>
-      <c r="B112">
+      <c r="C114" t="s">
+        <v>312</v>
+      </c>
+      <c r="D114">
         <v>110</v>
       </c>
-      <c r="AS112" t="s">
+      <c r="AU114" t="s">
         <v>313</v>
       </c>
-      <c r="BB112">
+      <c r="BD114">
         <v>10</v>
       </c>
-      <c r="BT112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
+      <c r="BV114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
         <v>314</v>
       </c>
-      <c r="B113">
+      <c r="C115" t="s">
+        <v>314</v>
+      </c>
+      <c r="D115">
         <v>111</v>
       </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="BT113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="BV115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
         <v>315</v>
       </c>
-      <c r="B114">
+      <c r="C116" t="s">
+        <v>315</v>
+      </c>
+      <c r="D116">
         <v>112</v>
       </c>
-      <c r="AS114" t="s">
+      <c r="AU116" t="s">
         <v>316</v>
       </c>
-      <c r="BT114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
+      <c r="BV116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
         <v>317</v>
       </c>
-      <c r="B115">
+      <c r="C117" t="s">
+        <v>317</v>
+      </c>
+      <c r="D117">
         <v>113</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="Y115">
-        <v>1</v>
-      </c>
-      <c r="AS115" t="s">
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="AA117">
+        <v>1</v>
+      </c>
+      <c r="AU117" t="s">
         <v>317</v>
       </c>
-      <c r="AZ115" t="s">
+      <c r="BB117" t="s">
         <v>106</v>
       </c>
-      <c r="BT115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
+      <c r="BV117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s">
         <v>318</v>
       </c>
-      <c r="B116">
+      <c r="C118" t="s">
+        <v>318</v>
+      </c>
+      <c r="D118">
         <v>114</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="AS116" t="s">
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="AU118" t="s">
         <v>318</v>
       </c>
-      <c r="BT116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
+      <c r="BV118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119" t="s">
         <v>319</v>
       </c>
-      <c r="B117">
+      <c r="C119" t="s">
+        <v>319</v>
+      </c>
+      <c r="D119">
         <v>115</v>
       </c>
-      <c r="AS117" t="s">
+      <c r="AU119" t="s">
         <v>319</v>
       </c>
-      <c r="BT117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A118" t="s">
+      <c r="BV119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120" t="s">
         <v>320</v>
       </c>
-      <c r="B118">
+      <c r="C120" t="s">
+        <v>320</v>
+      </c>
+      <c r="D120">
         <v>116</v>
       </c>
-      <c r="BT118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
+      <c r="BV120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
         <v>321</v>
       </c>
-      <c r="B119">
+      <c r="C121" t="s">
+        <v>321</v>
+      </c>
+      <c r="D121">
         <v>117</v>
       </c>
-      <c r="C119">
+      <c r="E121">
         <v>3</v>
       </c>
-      <c r="P119">
-        <v>1</v>
-      </c>
-      <c r="AN119">
-        <v>1</v>
-      </c>
-      <c r="AS119" t="s">
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="AP121">
+        <v>1</v>
+      </c>
+      <c r="AU121" t="s">
         <v>322</v>
       </c>
-      <c r="AT119" t="s">
+      <c r="AV121" t="s">
         <v>323</v>
       </c>
-      <c r="AU119" t="s">
+      <c r="AW121" t="s">
         <v>324</v>
       </c>
-      <c r="AV119" t="s">
+      <c r="AX121" t="s">
         <v>325</v>
       </c>
-      <c r="AZ119" t="s">
+      <c r="BB121" t="s">
         <v>127</v>
       </c>
-      <c r="BA119">
+      <c r="BC121">
         <v>16</v>
       </c>
-      <c r="BB119">
+      <c r="BD121">
         <v>11</v>
       </c>
-      <c r="BT119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
+      <c r="BV121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
         <v>326</v>
       </c>
-      <c r="B120">
+      <c r="C122" t="s">
+        <v>326</v>
+      </c>
+      <c r="D122">
         <v>118</v>
       </c>
-      <c r="AE120">
-        <v>1</v>
-      </c>
-      <c r="AF120">
-        <v>1</v>
-      </c>
-      <c r="AG120">
-        <v>1</v>
-      </c>
-      <c r="AJ120">
-        <v>1</v>
-      </c>
-      <c r="BT120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
+      <c r="AG122">
+        <v>1</v>
+      </c>
+      <c r="AH122">
+        <v>1</v>
+      </c>
+      <c r="AI122">
+        <v>1</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="BV122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
         <v>327</v>
       </c>
-      <c r="B121">
+      <c r="C123" t="s">
+        <v>327</v>
+      </c>
+      <c r="D123">
         <v>119</v>
       </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="M121">
-        <v>1</v>
-      </c>
-      <c r="AH121">
-        <v>1</v>
-      </c>
-      <c r="AJ121">
-        <v>1</v>
-      </c>
-      <c r="BN121">
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="AJ123">
+        <v>1</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="BP123">
         <v>2</v>
       </c>
-      <c r="BO121">
+      <c r="BQ123">
         <v>6</v>
       </c>
-      <c r="BT121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
+      <c r="BV123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124" t="s">
         <v>328</v>
       </c>
-      <c r="B122">
+      <c r="C124" t="s">
+        <v>328</v>
+      </c>
+      <c r="D124">
         <v>120</v>
       </c>
-      <c r="C122">
+      <c r="E124">
         <v>3</v>
       </c>
-      <c r="AN122">
-        <v>1</v>
-      </c>
-      <c r="AS122" t="s">
+      <c r="AP124">
+        <v>1</v>
+      </c>
+      <c r="AU124" t="s">
         <v>329</v>
       </c>
-      <c r="AT122" t="s">
+      <c r="AV124" t="s">
         <v>330</v>
       </c>
-      <c r="AU122" t="s">
+      <c r="AW124" t="s">
         <v>331</v>
       </c>
-      <c r="AV122" t="s">
+      <c r="AX124" t="s">
         <v>332</v>
       </c>
-      <c r="AZ122" t="s">
+      <c r="BB124" t="s">
         <v>141</v>
       </c>
-      <c r="BA122">
+      <c r="BC124">
         <v>16</v>
       </c>
-      <c r="BB122">
+      <c r="BD124">
         <v>11</v>
       </c>
-      <c r="BT122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
+      <c r="BV124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125" t="s">
         <v>333</v>
       </c>
-      <c r="B123">
+      <c r="C125" t="s">
+        <v>333</v>
+      </c>
+      <c r="D125">
         <v>121</v>
       </c>
-      <c r="BA123">
+      <c r="BC125">
         <v>19</v>
       </c>
-      <c r="BB123">
+      <c r="BD125">
         <v>12</v>
       </c>
-      <c r="BT123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
+      <c r="BV125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
         <v>334</v>
       </c>
-      <c r="B124">
+      <c r="C126" t="s">
+        <v>334</v>
+      </c>
+      <c r="D126">
         <v>122</v>
       </c>
-      <c r="AM124">
-        <v>1</v>
-      </c>
-      <c r="AW124" t="s">
+      <c r="AO126">
+        <v>1</v>
+      </c>
+      <c r="AY126" t="s">
         <v>335</v>
       </c>
-      <c r="AZ124" t="s">
+      <c r="BB126" t="s">
         <v>334</v>
       </c>
-      <c r="BA124">
-        <v>1</v>
-      </c>
-      <c r="BB124">
-        <v>1</v>
-      </c>
-      <c r="BT124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
+      <c r="BC126">
+        <v>1</v>
+      </c>
+      <c r="BD126">
+        <v>1</v>
+      </c>
+      <c r="BV126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
         <v>336</v>
       </c>
-      <c r="B125">
+      <c r="C127" t="s">
+        <v>336</v>
+      </c>
+      <c r="D127">
         <v>123</v>
       </c>
-      <c r="AM125">
-        <v>1</v>
-      </c>
-      <c r="AW125" t="s">
+      <c r="AO127">
+        <v>1</v>
+      </c>
+      <c r="AY127" t="s">
         <v>337</v>
       </c>
-      <c r="AZ125" t="s">
+      <c r="BB127" t="s">
         <v>336</v>
       </c>
-      <c r="BA125">
-        <v>1</v>
-      </c>
-      <c r="BB125">
-        <v>1</v>
-      </c>
-      <c r="BT125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
+      <c r="BC127">
+        <v>1</v>
+      </c>
+      <c r="BD127">
+        <v>1</v>
+      </c>
+      <c r="BV127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128" t="s">
         <v>338</v>
       </c>
-      <c r="B126">
+      <c r="C128" t="s">
+        <v>338</v>
+      </c>
+      <c r="D128">
         <v>124</v>
       </c>
-      <c r="AM126">
-        <v>1</v>
-      </c>
-      <c r="AW126" t="s">
+      <c r="AO128">
+        <v>1</v>
+      </c>
+      <c r="AY128" t="s">
         <v>339</v>
       </c>
-      <c r="AZ126" t="s">
+      <c r="BB128" t="s">
         <v>338</v>
       </c>
-      <c r="BA126">
-        <v>1</v>
-      </c>
-      <c r="BB126">
-        <v>1</v>
-      </c>
-      <c r="BT126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
+      <c r="BC128">
+        <v>1</v>
+      </c>
+      <c r="BD128">
+        <v>1</v>
+      </c>
+      <c r="BV128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129" t="s">
         <v>340</v>
       </c>
-      <c r="B127">
+      <c r="C129" t="s">
+        <v>340</v>
+      </c>
+      <c r="D129">
         <v>125</v>
       </c>
-      <c r="AM127">
-        <v>1</v>
-      </c>
-      <c r="AW127" t="s">
+      <c r="AO129">
+        <v>1</v>
+      </c>
+      <c r="AY129" t="s">
         <v>341</v>
       </c>
-      <c r="AZ127" t="s">
+      <c r="BB129" t="s">
         <v>340</v>
       </c>
-      <c r="BA127">
-        <v>1</v>
-      </c>
-      <c r="BB127">
-        <v>1</v>
-      </c>
-      <c r="BT127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
+      <c r="BC129">
+        <v>1</v>
+      </c>
+      <c r="BD129">
+        <v>1</v>
+      </c>
+      <c r="BV129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130" t="s">
         <v>342</v>
       </c>
-      <c r="B128">
+      <c r="C130" t="s">
+        <v>342</v>
+      </c>
+      <c r="D130">
         <v>126</v>
       </c>
-      <c r="AM128">
-        <v>1</v>
-      </c>
-      <c r="AW128" t="s">
+      <c r="AO130">
+        <v>1</v>
+      </c>
+      <c r="AY130" t="s">
         <v>343</v>
       </c>
-      <c r="AZ128" t="s">
+      <c r="BB130" t="s">
         <v>342</v>
       </c>
-      <c r="BA128">
-        <v>1</v>
-      </c>
-      <c r="BB128">
-        <v>1</v>
-      </c>
-      <c r="BT128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
+      <c r="BC130">
+        <v>1</v>
+      </c>
+      <c r="BD130">
+        <v>1</v>
+      </c>
+      <c r="BV130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131" t="s">
         <v>344</v>
       </c>
-      <c r="B129">
+      <c r="C131" t="s">
+        <v>344</v>
+      </c>
+      <c r="D131">
         <v>127</v>
       </c>
-      <c r="AM129">
-        <v>1</v>
-      </c>
-      <c r="AW129" t="s">
+      <c r="AO131">
+        <v>1</v>
+      </c>
+      <c r="AY131" t="s">
         <v>345</v>
       </c>
-      <c r="AZ129" t="s">
+      <c r="BB131" t="s">
         <v>344</v>
       </c>
-      <c r="BA129">
-        <v>1</v>
-      </c>
-      <c r="BB129">
-        <v>1</v>
-      </c>
-      <c r="BT129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
+      <c r="BC131">
+        <v>1</v>
+      </c>
+      <c r="BD131">
+        <v>1</v>
+      </c>
+      <c r="BV131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132" t="s">
         <v>346</v>
       </c>
-      <c r="B130">
+      <c r="C132" t="s">
+        <v>346</v>
+      </c>
+      <c r="D132">
         <v>128</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="Q130">
-        <v>1</v>
-      </c>
-      <c r="AS130" t="s">
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="S132">
+        <v>1</v>
+      </c>
+      <c r="AU132" t="s">
         <v>346</v>
       </c>
-      <c r="AT130" t="s">
+      <c r="AV132" t="s">
         <v>347</v>
       </c>
-      <c r="AZ130" t="s">
+      <c r="BB132" t="s">
         <v>123</v>
       </c>
-      <c r="BT130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
+      <c r="BV132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133" t="s">
         <v>348</v>
       </c>
-      <c r="B131">
+      <c r="C133" t="s">
+        <v>348</v>
+      </c>
+      <c r="D133">
         <v>129</v>
       </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-      <c r="O131">
-        <v>1</v>
-      </c>
-      <c r="P131">
-        <v>1</v>
-      </c>
-      <c r="AS131" t="s">
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="AU133" t="s">
         <v>348</v>
       </c>
-      <c r="AT131" t="s">
+      <c r="AV133" t="s">
         <v>347</v>
       </c>
-      <c r="AZ131" t="s">
+      <c r="BB133" t="s">
         <v>349</v>
       </c>
-      <c r="BT131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
+      <c r="BV133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134" t="s">
         <v>350</v>
       </c>
-      <c r="B132">
+      <c r="C134" t="s">
+        <v>350</v>
+      </c>
+      <c r="D134">
         <v>130</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-      <c r="S132">
-        <v>1</v>
-      </c>
-      <c r="AS132" t="s">
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="U134">
+        <v>1</v>
+      </c>
+      <c r="AU134" t="s">
         <v>350</v>
       </c>
-      <c r="AT132" t="s">
+      <c r="AV134" t="s">
         <v>351</v>
       </c>
-      <c r="AZ132" t="s">
+      <c r="BB134" t="s">
         <v>91</v>
       </c>
-      <c r="BT132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A133" t="s">
+      <c r="BV134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s">
         <v>352</v>
       </c>
-      <c r="B133">
+      <c r="C135" t="s">
+        <v>352</v>
+      </c>
+      <c r="D135">
         <v>131</v>
       </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-      <c r="R133">
-        <v>1</v>
-      </c>
-      <c r="AS133" t="s">
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="T135">
+        <v>1</v>
+      </c>
+      <c r="AU135" t="s">
         <v>352</v>
       </c>
-      <c r="AT133" t="s">
+      <c r="AV135" t="s">
         <v>347</v>
       </c>
-      <c r="AZ133" t="s">
+      <c r="BB135" t="s">
         <v>81</v>
       </c>
-      <c r="BT133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A134" t="s">
+      <c r="BV135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136" t="s">
         <v>353</v>
       </c>
-      <c r="B134">
+      <c r="C136" t="s">
+        <v>353</v>
+      </c>
+      <c r="D136">
         <v>132</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="T134">
-        <v>1</v>
-      </c>
-      <c r="AS134" t="s">
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="V136">
+        <v>1</v>
+      </c>
+      <c r="AU136" t="s">
         <v>353</v>
       </c>
-      <c r="AT134" t="s">
+      <c r="AV136" t="s">
         <v>351</v>
       </c>
-      <c r="AZ134" t="s">
+      <c r="BB136" t="s">
         <v>86</v>
       </c>
-      <c r="BT134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
+      <c r="BV136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137" t="s">
         <v>354</v>
       </c>
-      <c r="B135">
+      <c r="C137" t="s">
+        <v>354</v>
+      </c>
+      <c r="D137">
         <v>133</v>
       </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c r="V135">
-        <v>1</v>
-      </c>
-      <c r="AS135" t="s">
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="X137">
+        <v>1</v>
+      </c>
+      <c r="AU137" t="s">
         <v>354</v>
       </c>
-      <c r="AT135" t="s">
+      <c r="AV137" t="s">
         <v>351</v>
       </c>
-      <c r="AZ135" t="s">
+      <c r="BB137" t="s">
         <v>355</v>
       </c>
-      <c r="BT135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
+      <c r="BV137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138" t="s">
         <v>356</v>
       </c>
-      <c r="B136">
+      <c r="C138" t="s">
+        <v>356</v>
+      </c>
+      <c r="D138">
         <v>134</v>
       </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="AS136" t="s">
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="AU138" t="s">
         <v>356</v>
       </c>
-      <c r="AT136" t="s">
+      <c r="AV138" t="s">
         <v>347</v>
       </c>
-      <c r="BA136">
+      <c r="BC138">
         <v>9</v>
       </c>
-      <c r="BB136">
+      <c r="BD138">
         <v>6</v>
       </c>
-      <c r="BT136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
+      <c r="BV138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139" t="s">
         <v>357</v>
       </c>
-      <c r="B137">
+      <c r="C139" t="s">
+        <v>357</v>
+      </c>
+      <c r="D139">
         <v>135</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="AS137" t="s">
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="AU139" t="s">
         <v>357</v>
       </c>
-      <c r="AT137" t="s">
+      <c r="AV139" t="s">
         <v>351</v>
       </c>
-      <c r="BT137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
+      <c r="BV139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140" t="s">
         <v>358</v>
       </c>
-      <c r="B138">
+      <c r="C140" t="s">
+        <v>358</v>
+      </c>
+      <c r="D140">
         <v>136</v>
       </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="U138">
-        <v>1</v>
-      </c>
-      <c r="AS138" t="s">
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="W140">
+        <v>1</v>
+      </c>
+      <c r="AU140" t="s">
         <v>358</v>
       </c>
-      <c r="AT138" t="s">
+      <c r="AV140" t="s">
         <v>351</v>
       </c>
-      <c r="AZ138" t="s">
+      <c r="BB140" t="s">
         <v>189</v>
       </c>
-      <c r="BT138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
+      <c r="BV140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141" t="s">
         <v>359</v>
       </c>
-      <c r="B139">
+      <c r="C141" t="s">
+        <v>359</v>
+      </c>
+      <c r="D141">
         <v>137</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="AS139" t="s">
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="AU141" t="s">
         <v>359</v>
       </c>
-      <c r="AT139" t="s">
+      <c r="AV141" t="s">
         <v>347</v>
       </c>
-      <c r="BT139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
+      <c r="BV141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
         <v>360</v>
       </c>
-      <c r="B140">
+      <c r="C142" t="s">
+        <v>360</v>
+      </c>
+      <c r="D142">
         <v>138</v>
       </c>
-      <c r="AS140" t="s">
+      <c r="AU142" t="s">
         <v>361</v>
       </c>
-      <c r="AT140" t="s">
+      <c r="AV142" t="s">
         <v>361</v>
       </c>
-      <c r="BT140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
+      <c r="BV142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
         <v>362</v>
       </c>
-      <c r="B141">
+      <c r="C143" t="s">
+        <v>362</v>
+      </c>
+      <c r="D143">
         <v>139</v>
       </c>
-      <c r="C141">
+      <c r="E143">
         <v>3</v>
       </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="L141">
-        <v>1</v>
-      </c>
-      <c r="M141">
-        <v>1</v>
-      </c>
-      <c r="O141">
-        <v>1</v>
-      </c>
-      <c r="AQ141">
-        <v>1</v>
-      </c>
-      <c r="BA141">
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+      <c r="AS143">
+        <v>1</v>
+      </c>
+      <c r="BC143">
         <v>14</v>
       </c>
-      <c r="BL141" t="s">
+      <c r="BN143" t="s">
         <v>363</v>
       </c>
-      <c r="BM141" t="s">
+      <c r="BO143" t="s">
         <v>363</v>
       </c>
-      <c r="BN141">
-        <v>1</v>
-      </c>
-      <c r="BO141">
+      <c r="BP143">
+        <v>1</v>
+      </c>
+      <c r="BQ143">
         <v>430</v>
       </c>
-      <c r="BT141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
+      <c r="BV143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
         <v>364</v>
       </c>
-      <c r="B142">
+      <c r="C144" t="s">
+        <v>364</v>
+      </c>
+      <c r="D144">
         <v>140</v>
       </c>
-      <c r="C142">
+      <c r="E144">
         <v>3</v>
       </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="L142">
-        <v>1</v>
-      </c>
-      <c r="M142">
-        <v>1</v>
-      </c>
-      <c r="P142">
-        <v>1</v>
-      </c>
-      <c r="Q142">
-        <v>1</v>
-      </c>
-      <c r="AQ142">
-        <v>1</v>
-      </c>
-      <c r="BA142">
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+      <c r="AS144">
+        <v>1</v>
+      </c>
+      <c r="BC144">
         <v>14</v>
       </c>
-      <c r="BL142" t="s">
+      <c r="BN144" t="s">
         <v>363</v>
       </c>
-      <c r="BM142" t="s">
+      <c r="BO144" t="s">
         <v>363</v>
       </c>
-      <c r="BN142">
-        <v>1</v>
-      </c>
-      <c r="BO142">
+      <c r="BP144">
+        <v>1</v>
+      </c>
+      <c r="BQ144">
         <v>431</v>
       </c>
-      <c r="BT142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
+      <c r="BV144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145" t="s">
         <v>365</v>
       </c>
-      <c r="B143">
+      <c r="C145" t="s">
+        <v>365</v>
+      </c>
+      <c r="D145">
         <v>141</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-      <c r="AS143" t="s">
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="AU145" t="s">
         <v>366</v>
       </c>
-      <c r="AT143" t="s">
+      <c r="AV145" t="s">
         <v>366</v>
       </c>
-      <c r="BT143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
+      <c r="BV145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146" t="s">
         <v>367</v>
       </c>
-      <c r="B144">
+      <c r="C146" t="s">
+        <v>367</v>
+      </c>
+      <c r="D146">
         <v>142</v>
       </c>
-      <c r="BA144">
+      <c r="BC146">
         <v>5</v>
       </c>
-      <c r="BT144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
+      <c r="BV146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
         <v>368</v>
       </c>
-      <c r="B145">
+      <c r="C147" t="s">
+        <v>368</v>
+      </c>
+      <c r="D147">
         <v>143</v>
       </c>
-      <c r="J145">
-        <v>1</v>
-      </c>
-      <c r="AF145">
-        <v>1</v>
-      </c>
-      <c r="AG145">
-        <v>1</v>
-      </c>
-      <c r="AJ145">
-        <v>1</v>
-      </c>
-      <c r="BA145">
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="AH147">
+        <v>1</v>
+      </c>
+      <c r="AI147">
+        <v>1</v>
+      </c>
+      <c r="AL147">
+        <v>1</v>
+      </c>
+      <c r="BC147">
         <v>13</v>
       </c>
-      <c r="BB145">
+      <c r="BD147">
         <v>9</v>
       </c>
-      <c r="BR145">
+      <c r="BT147">
         <v>88</v>
       </c>
-      <c r="BS145">
+      <c r="BU147">
         <v>147</v>
       </c>
-      <c r="BT145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
+      <c r="BV147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148" t="s">
         <v>369</v>
       </c>
-      <c r="B146">
+      <c r="C148" t="s">
+        <v>369</v>
+      </c>
+      <c r="D148">
         <v>144</v>
       </c>
-      <c r="J146">
-        <v>1</v>
-      </c>
-      <c r="BA146">
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="BC148">
         <v>7</v>
       </c>
-      <c r="BB146">
+      <c r="BD148">
         <v>4</v>
       </c>
-      <c r="BR146">
+      <c r="BT148">
         <v>90</v>
       </c>
-      <c r="BS146">
+      <c r="BU148">
         <v>145</v>
       </c>
-      <c r="BT146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
+      <c r="BV148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149" t="s">
         <v>370</v>
       </c>
-      <c r="B147">
+      <c r="C149" t="s">
+        <v>370</v>
+      </c>
+      <c r="D149">
         <v>145</v>
       </c>
-      <c r="BS147">
+      <c r="BU149">
         <v>146</v>
       </c>
-      <c r="BT147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
+      <c r="BV149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150" t="s">
         <v>371</v>
       </c>
-      <c r="B148">
+      <c r="C150" t="s">
+        <v>371</v>
+      </c>
+      <c r="D150">
         <v>146</v>
       </c>
-      <c r="BA148">
+      <c r="BC150">
         <v>12</v>
       </c>
-      <c r="BB148">
+      <c r="BD150">
         <v>8</v>
       </c>
-      <c r="BT148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
+      <c r="BV150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
         <v>372</v>
       </c>
-      <c r="B149">
+      <c r="C151" t="s">
+        <v>372</v>
+      </c>
+      <c r="D151">
         <v>147</v>
       </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="AT149" t="s">
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="AV151" t="s">
         <v>373</v>
       </c>
-      <c r="BT149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A150" t="s">
+      <c r="BV151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
         <v>374</v>
       </c>
-      <c r="B150">
+      <c r="C152" t="s">
+        <v>374</v>
+      </c>
+      <c r="D152">
         <v>148</v>
       </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="O150">
-        <v>1</v>
-      </c>
-      <c r="P150">
-        <v>1</v>
-      </c>
-      <c r="AT150" t="s">
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="Q152">
+        <v>1</v>
+      </c>
+      <c r="R152">
+        <v>1</v>
+      </c>
+      <c r="AV152" t="s">
         <v>375</v>
       </c>
-      <c r="AZ150" t="s">
+      <c r="BB152" t="s">
         <v>187</v>
       </c>
-      <c r="BT150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
+      <c r="BV152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153" t="s">
         <v>376</v>
       </c>
-      <c r="B151">
+      <c r="C153" t="s">
+        <v>376</v>
+      </c>
+      <c r="D153">
         <v>149</v>
       </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="AT151" t="s">
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="AV153" t="s">
         <v>377</v>
       </c>
-      <c r="BT151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A152" t="s">
+      <c r="BV153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154" t="s">
         <v>378</v>
       </c>
-      <c r="B152">
+      <c r="C154" t="s">
+        <v>378</v>
+      </c>
+      <c r="D154">
         <v>150</v>
       </c>
-      <c r="J152">
-        <v>1</v>
-      </c>
-      <c r="BA152">
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="BC154">
         <v>11</v>
       </c>
-      <c r="BR152">
+      <c r="BT154">
         <v>89</v>
       </c>
-      <c r="BT152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
+      <c r="BV154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
         <v>379</v>
       </c>
-      <c r="B153">
+      <c r="C155" t="s">
+        <v>379</v>
+      </c>
+      <c r="D155">
         <v>151</v>
       </c>
-      <c r="AN153">
-        <v>1</v>
-      </c>
-      <c r="AO153">
-        <v>1</v>
-      </c>
-      <c r="AS153" t="s">
+      <c r="AP155">
+        <v>1</v>
+      </c>
+      <c r="AQ155">
+        <v>1</v>
+      </c>
+      <c r="AU155" t="s">
         <v>380</v>
       </c>
-      <c r="AT153" t="s">
+      <c r="AV155" t="s">
         <v>381</v>
       </c>
-      <c r="AU153" t="s">
+      <c r="AW155" t="s">
         <v>382</v>
       </c>
-      <c r="BA153">
+      <c r="BC155">
         <v>8</v>
       </c>
-      <c r="BB153">
+      <c r="BD155">
         <v>5</v>
       </c>
-      <c r="BT153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A154" t="s">
+      <c r="BV155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156" t="s">
         <v>383</v>
       </c>
-      <c r="B154">
+      <c r="C156" t="s">
+        <v>383</v>
+      </c>
+      <c r="D156">
         <v>152</v>
       </c>
-      <c r="BT154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A155" t="s">
+      <c r="BV156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157" t="s">
         <v>384</v>
       </c>
-      <c r="B155">
+      <c r="C157" t="s">
+        <v>384</v>
+      </c>
+      <c r="D157">
         <v>153</v>
       </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="Q155">
-        <v>1</v>
-      </c>
-      <c r="BA155">
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="S157">
+        <v>1</v>
+      </c>
+      <c r="BC157">
         <v>2</v>
       </c>
-      <c r="BL155" t="s">
+      <c r="BN157" t="s">
         <v>385</v>
       </c>
-      <c r="BT155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A156" t="s">
+      <c r="BV157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158" t="s">
         <v>386</v>
       </c>
-      <c r="B156">
+      <c r="C158" t="s">
+        <v>386</v>
+      </c>
+      <c r="D158">
         <v>154</v>
       </c>
-      <c r="AF156">
-        <v>1</v>
-      </c>
-      <c r="AG156">
-        <v>1</v>
-      </c>
-      <c r="AH156">
-        <v>1</v>
-      </c>
-      <c r="AJ156">
-        <v>1</v>
-      </c>
-      <c r="BT156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A157" t="s">
+      <c r="AH158">
+        <v>1</v>
+      </c>
+      <c r="AI158">
+        <v>1</v>
+      </c>
+      <c r="AJ158">
+        <v>1</v>
+      </c>
+      <c r="AL158">
+        <v>1</v>
+      </c>
+      <c r="BV158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159" t="s">
         <v>387</v>
       </c>
-      <c r="B157">
+      <c r="C159" t="s">
+        <v>387</v>
+      </c>
+      <c r="D159">
         <v>155</v>
       </c>
-      <c r="BT157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A158" t="s">
+      <c r="BV159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160" t="s">
         <v>388</v>
       </c>
-      <c r="B158">
+      <c r="C160" t="s">
+        <v>388</v>
+      </c>
+      <c r="D160">
         <v>156</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-      <c r="Y158">
-        <v>1</v>
-      </c>
-      <c r="AS158" t="s">
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="AA160">
+        <v>1</v>
+      </c>
+      <c r="AU160" t="s">
         <v>388</v>
       </c>
-      <c r="AZ158" t="s">
+      <c r="BB160" t="s">
         <v>106</v>
       </c>
-      <c r="BT158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A159" t="s">
+      <c r="BV160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161" t="s">
         <v>389</v>
       </c>
-      <c r="B159">
+      <c r="C161" t="s">
+        <v>389</v>
+      </c>
+      <c r="D161">
         <v>157</v>
       </c>
-      <c r="C159">
+      <c r="E161">
         <v>2</v>
       </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="AS159" t="s">
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="AU161" t="s">
         <v>389</v>
       </c>
-      <c r="AZ159" t="s">
+      <c r="BB161" t="s">
         <v>141</v>
       </c>
-      <c r="BT159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A160" t="s">
+      <c r="BV161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162" t="s">
         <v>390</v>
       </c>
-      <c r="B160">
+      <c r="C162" t="s">
+        <v>390</v>
+      </c>
+      <c r="D162">
         <v>158</v>
       </c>
-      <c r="AS160" t="s">
+      <c r="AU162" t="s">
         <v>390</v>
       </c>
-      <c r="BT160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A161" t="s">
+      <c r="BV162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163" t="s">
         <v>391</v>
       </c>
-      <c r="B161">
+      <c r="C163" t="s">
+        <v>391</v>
+      </c>
+      <c r="D163">
         <v>159</v>
       </c>
-      <c r="C161">
+      <c r="E163">
         <v>2</v>
       </c>
-      <c r="R161">
-        <v>1</v>
-      </c>
-      <c r="S161">
-        <v>1</v>
-      </c>
-      <c r="T161">
-        <v>1</v>
-      </c>
-      <c r="V161">
-        <v>1</v>
-      </c>
-      <c r="AS161" t="s">
+      <c r="T163">
+        <v>1</v>
+      </c>
+      <c r="U163">
+        <v>1</v>
+      </c>
+      <c r="V163">
+        <v>1</v>
+      </c>
+      <c r="X163">
+        <v>1</v>
+      </c>
+      <c r="AU163" t="s">
         <v>391</v>
       </c>
-      <c r="AZ161" t="s">
+      <c r="BB163" t="s">
         <v>355</v>
       </c>
-      <c r="BT161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A162" t="s">
+      <c r="BV163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164" t="s">
         <v>392</v>
       </c>
-      <c r="B162">
+      <c r="C164" t="s">
+        <v>392</v>
+      </c>
+      <c r="D164">
         <v>160</v>
       </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="BT162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A163" t="s">
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="BV164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165" t="s">
         <v>393</v>
       </c>
-      <c r="B163">
+      <c r="C165" t="s">
+        <v>393</v>
+      </c>
+      <c r="D165">
         <v>161</v>
       </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="BT163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A164" t="s">
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="BV165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166" t="s">
         <v>394</v>
       </c>
-      <c r="B164">
+      <c r="C166" t="s">
+        <v>394</v>
+      </c>
+      <c r="D166">
         <v>162</v>
       </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="BT164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A165" t="s">
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="BV166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167" t="s">
         <v>395</v>
       </c>
-      <c r="B165">
+      <c r="C167" t="s">
+        <v>395</v>
+      </c>
+      <c r="D167">
         <v>163</v>
       </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="BT165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A166" t="s">
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="BV167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168" t="s">
         <v>396</v>
       </c>
-      <c r="B166">
+      <c r="C168" t="s">
+        <v>396</v>
+      </c>
+      <c r="D168">
         <v>164</v>
       </c>
-      <c r="BT166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A167" t="s">
+      <c r="BV168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169" t="s">
         <v>397</v>
       </c>
-      <c r="B167">
+      <c r="C169" t="s">
+        <v>397</v>
+      </c>
+      <c r="D169">
         <v>165</v>
       </c>
-      <c r="BT167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A168" t="s">
+      <c r="BV169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>167</v>
+      </c>
+      <c r="B170" t="s">
         <v>398</v>
       </c>
-      <c r="B168">
+      <c r="C170" t="s">
+        <v>398</v>
+      </c>
+      <c r="D170">
         <v>166</v>
       </c>
-      <c r="BT168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A169" t="s">
+      <c r="BV170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>168</v>
+      </c>
+      <c r="B171" t="s">
         <v>399</v>
       </c>
-      <c r="B169">
+      <c r="C171" t="s">
+        <v>399</v>
+      </c>
+      <c r="D171">
         <v>167</v>
       </c>
-      <c r="BT169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A170" t="s">
+      <c r="BV171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>169</v>
+      </c>
+      <c r="B172" t="s">
         <v>400</v>
       </c>
-      <c r="B170">
+      <c r="C172" t="s">
+        <v>400</v>
+      </c>
+      <c r="D172">
         <v>168</v>
       </c>
-      <c r="BT170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A171" t="s">
+      <c r="BV172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>170</v>
+      </c>
+      <c r="B173" t="s">
         <v>401</v>
       </c>
-      <c r="B171">
+      <c r="C173" t="s">
+        <v>401</v>
+      </c>
+      <c r="D173">
         <v>169</v>
       </c>
-      <c r="BT171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A172" t="s">
+      <c r="BV173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>171</v>
+      </c>
+      <c r="B174" t="s">
         <v>402</v>
       </c>
-      <c r="B172">
+      <c r="C174" t="s">
+        <v>402</v>
+      </c>
+      <c r="D174">
         <v>170</v>
       </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="BT172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A173" t="s">
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="BV174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>172</v>
+      </c>
+      <c r="B175" t="s">
         <v>403</v>
       </c>
-      <c r="B173">
+      <c r="C175" t="s">
+        <v>403</v>
+      </c>
+      <c r="D175">
         <v>171</v>
       </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="BT173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A174" t="s">
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="BV175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>173</v>
+      </c>
+      <c r="B176" t="s">
         <v>404</v>
       </c>
-      <c r="B174">
+      <c r="C176" t="s">
+        <v>404</v>
+      </c>
+      <c r="D176">
         <v>172</v>
       </c>
-      <c r="AF174">
-        <v>1</v>
-      </c>
-      <c r="AG174">
-        <v>1</v>
-      </c>
-      <c r="AJ174">
-        <v>1</v>
-      </c>
-      <c r="AR174">
-        <v>1</v>
-      </c>
-      <c r="BA174">
+      <c r="AH176">
+        <v>1</v>
+      </c>
+      <c r="AI176">
+        <v>1</v>
+      </c>
+      <c r="AL176">
+        <v>1</v>
+      </c>
+      <c r="AT176">
+        <v>1</v>
+      </c>
+      <c r="BC176">
         <v>17</v>
       </c>
-      <c r="BC174" t="s">
+      <c r="BE176" t="s">
         <v>226</v>
       </c>
-      <c r="BL174" t="s">
+      <c r="BN176" t="s">
         <v>301</v>
       </c>
-      <c r="BT174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A175" t="s">
+      <c r="BV176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>174</v>
+      </c>
+      <c r="B177" t="s">
         <v>405</v>
       </c>
-      <c r="B175">
+      <c r="C177" t="s">
+        <v>405</v>
+      </c>
+      <c r="D177">
         <v>173</v>
       </c>
-      <c r="AF175">
-        <v>1</v>
-      </c>
-      <c r="AG175">
-        <v>1</v>
-      </c>
-      <c r="AH175">
-        <v>1</v>
-      </c>
-      <c r="AJ175">
-        <v>1</v>
-      </c>
-      <c r="AR175">
-        <v>1</v>
-      </c>
-      <c r="BA175">
+      <c r="AH177">
+        <v>1</v>
+      </c>
+      <c r="AI177">
+        <v>1</v>
+      </c>
+      <c r="AJ177">
+        <v>1</v>
+      </c>
+      <c r="AL177">
+        <v>1</v>
+      </c>
+      <c r="AT177">
+        <v>1</v>
+      </c>
+      <c r="BC177">
         <v>18</v>
       </c>
-      <c r="BC175" t="s">
+      <c r="BE177" t="s">
         <v>406</v>
       </c>
-      <c r="BL175" t="s">
+      <c r="BN177" t="s">
         <v>407</v>
       </c>
-      <c r="BT175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A176" t="s">
+      <c r="BV177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
         <v>408</v>
       </c>
-      <c r="B176">
+      <c r="C178" t="s">
+        <v>408</v>
+      </c>
+      <c r="D178">
         <v>174</v>
       </c>
-      <c r="AS176" t="s">
+      <c r="AU178" t="s">
         <v>408</v>
       </c>
-      <c r="BT176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A177" t="s">
+      <c r="BV178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>176</v>
+      </c>
+      <c r="B179" t="s">
         <v>409</v>
       </c>
-      <c r="B177">
+      <c r="C179" t="s">
+        <v>409</v>
+      </c>
+      <c r="D179">
         <v>175</v>
       </c>
-      <c r="AS177" t="s">
+      <c r="AU179" t="s">
         <v>410</v>
       </c>
-      <c r="BT177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A178" t="s">
+      <c r="BV179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>177</v>
+      </c>
+      <c r="B180" t="s">
         <v>411</v>
       </c>
-      <c r="B178">
+      <c r="C180" t="s">
+        <v>411</v>
+      </c>
+      <c r="D180">
         <v>176</v>
       </c>
-      <c r="C178">
+      <c r="E180">
         <v>3</v>
       </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-      <c r="M178">
-        <v>1</v>
-      </c>
-      <c r="AX178" t="s">
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
+      <c r="AZ180" t="s">
         <v>412</v>
       </c>
-      <c r="BN178">
-        <v>1</v>
-      </c>
-      <c r="BO178">
+      <c r="BP180">
+        <v>1</v>
+      </c>
+      <c r="BQ180">
         <v>135</v>
       </c>
-      <c r="BT178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A179" t="s">
+      <c r="BV180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
         <v>413</v>
       </c>
-      <c r="B179">
+      <c r="C181" t="s">
+        <v>413</v>
+      </c>
+      <c r="D181">
         <v>177</v>
       </c>
-      <c r="C179">
+      <c r="E181">
         <v>3</v>
       </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
-      <c r="L179">
-        <v>1</v>
-      </c>
-      <c r="M179">
-        <v>1</v>
-      </c>
-      <c r="AX179" t="s">
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
+      <c r="AZ181" t="s">
         <v>414</v>
       </c>
-      <c r="AY179" t="s">
+      <c r="BA181" t="s">
         <v>414</v>
       </c>
-      <c r="BN179">
-        <v>1</v>
-      </c>
-      <c r="BO179">
+      <c r="BP181">
+        <v>1</v>
+      </c>
+      <c r="BQ181">
         <v>212</v>
       </c>
-      <c r="BT179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A180" t="s">
+      <c r="BV181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
         <v>415</v>
       </c>
-      <c r="B180">
+      <c r="C182" t="s">
+        <v>415</v>
+      </c>
+      <c r="D182">
         <v>178</v>
       </c>
-      <c r="V180">
-        <v>1</v>
-      </c>
-      <c r="BT180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A181" t="s">
+      <c r="X182">
+        <v>1</v>
+      </c>
+      <c r="BV182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
         <v>416</v>
       </c>
-      <c r="B181">
+      <c r="C183" t="s">
+        <v>416</v>
+      </c>
+      <c r="D183">
         <v>179</v>
       </c>
-      <c r="T181">
-        <v>1</v>
-      </c>
-      <c r="BT181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
+      <c r="V183">
+        <v>1</v>
+      </c>
+      <c r="BV183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
         <v>417</v>
       </c>
-      <c r="B182">
+      <c r="C184" t="s">
+        <v>417</v>
+      </c>
+      <c r="D184">
         <v>180</v>
       </c>
-      <c r="U182">
-        <v>1</v>
-      </c>
-      <c r="BT182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
+      <c r="W184">
+        <v>1</v>
+      </c>
+      <c r="BV184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>182</v>
+      </c>
+      <c r="B185" t="s">
         <v>418</v>
       </c>
-      <c r="B183">
+      <c r="C185" t="s">
+        <v>418</v>
+      </c>
+      <c r="D185">
         <v>181</v>
       </c>
-      <c r="BT183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
+      <c r="BV185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>183</v>
+      </c>
+      <c r="B186" t="s">
         <v>419</v>
       </c>
-      <c r="B184">
+      <c r="C186" t="s">
+        <v>419</v>
+      </c>
+      <c r="D186">
         <v>182</v>
       </c>
-      <c r="BT184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
+      <c r="BV186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>184</v>
+      </c>
+      <c r="B187" t="s">
         <v>420</v>
       </c>
-      <c r="B185">
+      <c r="C187" t="s">
+        <v>420</v>
+      </c>
+      <c r="D187">
         <v>183</v>
       </c>
-      <c r="BT185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
+      <c r="BV187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>185</v>
+      </c>
+      <c r="B188" t="s">
         <v>421</v>
       </c>
-      <c r="B186">
+      <c r="C188" t="s">
+        <v>421</v>
+      </c>
+      <c r="D188">
         <v>184</v>
       </c>
-      <c r="AF186">
-        <v>1</v>
-      </c>
-      <c r="AH186">
-        <v>1</v>
-      </c>
-      <c r="AI186">
-        <v>1</v>
-      </c>
-      <c r="AJ186">
-        <v>1</v>
-      </c>
-      <c r="BL186" t="s">
+      <c r="AH188">
+        <v>1</v>
+      </c>
+      <c r="AJ188">
+        <v>1</v>
+      </c>
+      <c r="AK188">
+        <v>1</v>
+      </c>
+      <c r="AL188">
+        <v>1</v>
+      </c>
+      <c r="BN188" t="s">
         <v>74</v>
       </c>
-      <c r="BT186">
+      <c r="BV188">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:BV3" xr:uid="{3C934A89-1855-4BDF-A6DD-042AE400C36B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5976,12 +7618,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
